--- a/SeedingResources/Users.xlsx
+++ b/SeedingResources/Users.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\CyberMuffin\Repos\BlazorEcommerce\SeedingResources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370745A0-929D-494B-92AA-43E0ABB53387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="3675" yWindow="3675" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,12 +24,49 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>PhoneNumber</t>
+  </si>
+  <si>
+    <t>JoinDate</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>admin@admin.com</t>
+  </si>
+  <si>
+    <t>2022-02-11 05:00:15.8400000</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -46,13 +89,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -330,13 +376,60 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>123</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{B210CCC5-4740-46E2-940C-748337283C0A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/SeedingResources/Users.xlsx
+++ b/SeedingResources/Users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\CyberMuffin\Repos\BlazorEcommerce\SeedingResources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370745A0-929D-494B-92AA-43E0ABB53387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE18DB1-C3F4-4ECE-9041-2A4B7F01FB72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3675" yWindow="3675" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>FirstName</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>2022-02-11 05:00:15.8400000</t>
+  </si>
+  <si>
+    <t>UserName</t>
   </si>
 </sst>
 </file>
@@ -377,58 +380,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>123</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{B210CCC5-4740-46E2-940C-748337283C0A}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{B210CCC5-4740-46E2-940C-748337283C0A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
